--- a/biology/Médecine/Gant_médical/Gant_médical.xlsx
+++ b/biology/Médecine/Gant_médical/Gant_médical.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gant_m%C3%A9dical</t>
+          <t>Gant_médical</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gants médico-chirurgicaux sont des gants utilisés dans le monde médical pour protéger les patients et les soignants des infections transmissibles. Ce sont des équipements de protection individuelle (EPI).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gant_m%C3%A9dical</t>
+          <t>Gant_médical</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première paire de gants chirurgicaux a été créée à la demande de William Halsted par amour pour son assistante infirmière Caroline Hampton (en), sa future femme, qui avait un eczéma aux mains dû à l'usage trop régulier du phénol[1] (pour se désinfecter dans le bloc opératoire), aussi demanda-t-il à Goodyear Rubber Company de lui fabriquer des gants en caoutchouc spécifiques, utilisés pour la première fois en 1894 pour une intervention chirurgicale à l'hôpital Johns-Hopkins de Baltimore[2],[3]. En France, Henri Chaput inaugure en 1901 l'usage de gants en caoutchouc dans un but d'asepsie et non plus seulement de protection dermique[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première paire de gants chirurgicaux a été créée à la demande de William Halsted par amour pour son assistante infirmière Caroline Hampton (en), sa future femme, qui avait un eczéma aux mains dû à l'usage trop régulier du phénol (pour se désinfecter dans le bloc opératoire), aussi demanda-t-il à Goodyear Rubber Company de lui fabriquer des gants en caoutchouc spécifiques, utilisés pour la première fois en 1894 pour une intervention chirurgicale à l'hôpital Johns-Hopkins de Baltimore,. En France, Henri Chaput inaugure en 1901 l'usage de gants en caoutchouc dans un but d'asepsie et non plus seulement de protection dermique.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gant_m%C3%A9dical</t>
+          <t>Gant_médical</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces gants à usage unique peuvent être fabriqués à partir :
-de latex ou de caoutchouc nitrile (type « nitrile »), exempts de protéines naturelles et de thiurames[5] ;
+de latex ou de caoutchouc nitrile (type « nitrile »), exempts de protéines naturelles et de thiurames ;
 de polymères thermoplastiques (polychlorure de vinyle (type « vinyle ») ou polyéthylène).
 On utilise aussi les gants médicaux dans les laboratoires de biologie moléculaire, afin de ne pas contaminer le matériel étudié ou pour se protéger d'un produit chimique toxique.
 Les gants pour examens médicaux sont des modèles ambidextres. Leur épaisseur est de l'ordre de 0,1 à 0,2 mm.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Gant_m%C3%A9dical</t>
+          <t>Gant_médical</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Normes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Des normes européennes ont été rédigées pour les différentes spécifications concernant les gants de protection :
 EN 374 : gants de protection contre les produits chimiques et les micro-organismes ;
